--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556268.4214428378</v>
+        <v>553308.5181402609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>11851279.69682649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901944</v>
+        <v>2519657.038588235</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6956619.06828666</v>
+        <v>7865276.873145211</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>374.1952585722194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>71.94762989914831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +822,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.1277234473732</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>43.02212342477529</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.141714685926243</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1139,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>185.5049644635001</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>37.39972735518568</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>186.419516696712</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>209.5855565322777</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>92.38090300811082</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1768,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>98.15366458399245</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.72457055526927</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>260.4446813871638</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>101.5800624936545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182447</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.8970328977319</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>79.47996908724096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3089,7 +3091,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3193,7 +3195,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>104.9037564455526</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>123.0673923170415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>123.9086344760393</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>101.5800624936545</v>
       </c>
     </row>
     <row r="41">
@@ -3901,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3961,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>180.49589024553</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>119.9277136455161</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>51.58543740429393</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.668515703089</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="C2" t="n">
-        <v>893.7677857163897</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="D2" t="n">
-        <v>470.47516490139</v>
+        <v>826.8122961186064</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819457</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630123</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="Y2" t="n">
-        <v>1740.51687999462</v>
+        <v>1250.104916933606</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>201.1892506764434</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>751.8547856608814</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>1302.520320645319</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.2438307690477</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C4" t="n">
-        <v>454.2712676479637</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D4" t="n">
-        <v>454.2712676479637</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>927.6499241754298</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.4097994811134</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1178.800047170369</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="C5" t="n">
-        <v>751.8993171836694</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="D5" t="n">
-        <v>751.8993171836694</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>746.7056659857641</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
         <v>746.7056659857641</v>
@@ -4559,58 +4561,58 @@
         <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.767218850581</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819457</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819457</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.985681507009</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.985681507009</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.985681507009</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2003.985681507009</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>2003.985681507009</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y5" t="n">
-        <v>1598.648411461899</v>
+        <v>1641.263477976562</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>201.1892506764434</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764434</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608814</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1805.062888170846</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="C8" t="n">
-        <v>1378.162158184146</v>
+        <v>928.6646569729185</v>
       </c>
       <c r="D8" t="n">
-        <v>954.869537369146</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="E8" t="n">
-        <v>954.869537369146</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F8" t="n">
-        <v>529.7453555585462</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>549.9383681074139</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1651.26943807629</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.26943807629</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.26943807629</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.911252462376</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y8" t="n">
-        <v>2224.911252462376</v>
+        <v>1775.413751251148</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336854</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336854</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4957,7 +4959,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1805.062888170846</v>
+        <v>2497.501727554001</v>
       </c>
       <c r="C11" t="n">
-        <v>1616.760346052955</v>
+        <v>2070.600997567301</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.467725237955</v>
+        <v>1647.308376752302</v>
       </c>
       <c r="E11" t="n">
-        <v>767.4907853858125</v>
+        <v>1221.331436900159</v>
       </c>
       <c r="F11" t="n">
-        <v>342.3666035752127</v>
+        <v>796.2072550895592</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3666035752127</v>
+        <v>391.8681926790078</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J11" t="n">
-        <v>407.101683866143</v>
+        <v>456.6032729699382</v>
       </c>
       <c r="K11" t="n">
-        <v>957.767218850581</v>
+        <v>1172.111580945437</v>
       </c>
       <c r="L11" t="n">
-        <v>1006.023847611597</v>
+        <v>2101.736628564714</v>
       </c>
       <c r="M11" t="n">
-        <v>1006.023847611597</v>
+        <v>2304.953184628534</v>
       </c>
       <c r="N11" t="n">
-        <v>1556.689382596035</v>
+        <v>3281.204243115235</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580473</v>
+        <v>4126.348893266048</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>4126.348893266048</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>4582.434372770231</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>4488.288125296297</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>4130.798710422547</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462376</v>
+        <v>3734.407360722893</v>
       </c>
       <c r="X11" t="n">
-        <v>2224.911252462376</v>
+        <v>3322.687361890641</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.911252462376</v>
+        <v>2917.350091845531</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.6217160807028</v>
+        <v>661.1233051844979</v>
       </c>
       <c r="C12" t="n">
-        <v>494.1158125982075</v>
+        <v>543.6174017020027</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>439.7774432172877</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>335.0755094902249</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>241.429679173129</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>147.3759073907331</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.1699405917402</v>
+        <v>684.4847407213822</v>
       </c>
       <c r="L12" t="n">
-        <v>119.1699405917402</v>
+        <v>1521.283548804288</v>
       </c>
       <c r="M12" t="n">
-        <v>119.1699405917402</v>
+        <v>1521.283548804288</v>
       </c>
       <c r="N12" t="n">
-        <v>669.8354755761782</v>
+        <v>1521.283548804288</v>
       </c>
       <c r="O12" t="n">
-        <v>1220.501010560616</v>
+        <v>1521.283548804288</v>
       </c>
       <c r="P12" t="n">
-        <v>1771.166545545054</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="Q12" t="n">
-        <v>1771.166545545054</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="R12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="S12" t="n">
-        <v>1771.861608191012</v>
+        <v>1821.363197294807</v>
       </c>
       <c r="T12" t="n">
-        <v>1629.98167248869</v>
+        <v>1679.483261592485</v>
       </c>
       <c r="U12" t="n">
-        <v>1445.213476408327</v>
+        <v>1494.715065512122</v>
       </c>
       <c r="V12" t="n">
-        <v>1240.240337547593</v>
+        <v>1289.741926651388</v>
       </c>
       <c r="W12" t="n">
-        <v>1043.71896038081</v>
+        <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>880.2416141474731</v>
+        <v>929.7432032512683</v>
       </c>
       <c r="Y12" t="n">
-        <v>740.5487255007655</v>
+        <v>790.0503146045606</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>1177.18093667728</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>1005.208373556196</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>841.8916006829662</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>675.6833948358197</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>503.8216206103802</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>337.5646509046123</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>193.7683824127667</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734055</v>
+        <v>151.4911423772007</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792427</v>
+        <v>378.0187435830379</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736634</v>
+        <v>732.7080648774586</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743914</v>
+        <v>1123.893859847709</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.88378161995</v>
+        <v>1501.385370723745</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299713</v>
+        <v>1856.813499403508</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221614</v>
+        <v>2147.412711325409</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="R13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="U13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>2111.105974081285</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>1836.253570253798</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>1593.689673699603</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>1367.346905389345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>988.0056192934833</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>561.1048893067834</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>137.8122684917837</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>137.8122684917837</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>137.8122684917837</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>455.358312627159</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>455.358312627159</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>455.358312627159</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>1006.023847611597</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>1556.689382596035</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580473</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462376</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.191253630123</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1407.853983585013</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>866.8612493132766</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>866.8612493132766</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>866.8612493132766</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N15" t="n">
-        <v>866.8612493132766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.526784297715</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315.615903911738</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>143.643340790654</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2054.776204981511</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1811.43685720741</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1531.252408707715</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1249.540941315744</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>974.6885374882565</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>732.1246409340616</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>505.7818726238037</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924752</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336854</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1100.603903091852</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>1100.603903091852</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>1100.603903091852</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>1651.26943807629</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580473</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462376</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462376</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.191253630123</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.191253630123</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>44.49822504924752</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>287.709308798102</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>838.37484378254</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1027.91077931376</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>855.9382161926764</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>692.6214433194471</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>526.4132374723006</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>354.551463246861</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>188.2944935410931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2224.911252462376</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2224.911252462376</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2224.911252462376</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1961.835816717766</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1686.983412890279</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1444.419516336084</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1218.076748025826</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>5012.529546560463</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>5012.529546560463</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>4732.345098060768</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>4450.633630668796</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>4450.633630668796</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5995,13 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
         <v>4406.8563911335</v>
@@ -6078,10 +6080,10 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3619.314716995755</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3447.342153874671</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>3284.025381001441</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>3117.817175154295</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>2945.955400928855</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>4834.951221791732</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>4553.23975439976</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W25" t="n">
-        <v>4278.387350572273</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X25" t="n">
-        <v>4035.823454018078</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="Y25" t="n">
-        <v>3809.48068570782</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6233,28 +6235,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1875.844036582501</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>3078.518911370144</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>3078.518911370144</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>3078.518911370144</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>3078.518911370144</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,16 +6703,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
         <v>4406.8563911335</v>
@@ -6734,7 +6736,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
         <v>3777.607131232208</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>3270.011978872612</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>3098.039415751528</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>5009.172279942384</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>4765.832932168284</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>4485.648483668589</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>4203.937016276617</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>3929.08461244913</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>3686.520715894936</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>3460.177947584677</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6947,16 +6949,16 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1907.815376917197</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3158.801708427964</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C37" t="n">
-        <v>3034.491211138023</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D37" t="n">
-        <v>3034.491211138023</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140029</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="38">
@@ -7260,7 +7262,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3899.49916549545</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>3727.526602374366</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>3564.209829501137</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>3398.00162365399</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>3226.139849428551</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>3059.882879722783</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899456</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071969</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517774</v>
+        <v>1478.255928373095</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207516</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7411,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7497,7 +7499,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
         <v>1910.990343986338</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>603.8002552472883</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>431.8276921262043</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D43" t="n">
-        <v>268.510919252975</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E43" t="n">
         <v>102.3027134058285</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1020.308992269612</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>793.966223959354</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>470.47516490139</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>470.47516490139</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>470.47516490139</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924752</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924752</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924752</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>595.1637600336854</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1145.829295018124</v>
+        <v>1970.233751723557</v>
       </c>
       <c r="M44" t="n">
-        <v>1674.245717477938</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N44" t="n">
-        <v>1674.245717477938</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O44" t="n">
-        <v>1674.245717477938</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462376</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462376</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2103.772147769935</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1707.380798070282</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1295.66079923803</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>890.32352919292</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>51.94486801115936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>51.94486801115936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>51.94486801115936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>51.94486801115936</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N45" t="n">
-        <v>602.6104029955973</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
-        <v>1153.275937980035</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1703.941472964473</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>268.5772905989112</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60472747782725</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>44.49822504924752</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>44.49822504924752</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924752</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924752</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.737591668684</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.398243894584</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.213795394888</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V46" t="n">
-        <v>1202.502328002917</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W46" t="n">
-        <v>927.6499241754298</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X46" t="n">
-        <v>685.0860276212348</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>458.7432593109769</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150257</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>204.8788014195786</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8055,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>171.3630160154384</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298235</v>
+        <v>90.41920043198729</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>452.4011488286621</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.86874406016992</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>178.8848775931272</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>90.6511520067363</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>180.0440798263961</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,28 +8534,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733347</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>184.5908146029612</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104032</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>87.05611188819455</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>242.7005114487454</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>97.82520912878051</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204226</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>450.7747902674471</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258253</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>378.9827212526463</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>594.5398555482168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>547.9768619480848</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258253</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>267.010789576021</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9641,7 +9643,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9650,7 +9652,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9726,13 +9728,13 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
-        <v>60.04398625350153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10361,7 +10363,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10595,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O35" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10680,10 +10682,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.95407573255603</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11066,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11075,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11147,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104032</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5398555482168</v>
+        <v>836.1092863976068</v>
       </c>
       <c r="M44" t="n">
-        <v>571.1852249800521</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258253</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11382,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378161</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.65115200673699</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>47.52191188140165</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22598,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.3362674455103</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050366</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -22720,10 +22722,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>113.9516171797822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>379.6095992620575</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>416.5754557676948</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22850,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23027,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>214.7907073229457</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>363.8841699894729</v>
       </c>
     </row>
     <row r="9">
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>236.2122059901209</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>46.18580377727415</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>307.914768778335</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>63.52994056050454</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23701,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>348.9253100933454</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23938,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>18.44967133088761</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>66.85363451240204</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>59.37454630891071</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283262</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>116.9973198203195</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>90.77286840263218</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25123,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050389</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>47.18544517283162</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25330,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>18.44967133088781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>122.4992781335009</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>59.64236734312294</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>233.9868070794969</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457412.9170706536</v>
+        <v>457412.9170706538</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457412.9170706536</v>
+        <v>457412.9170706538</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457412.9170706536</v>
+        <v>715458.9885853551</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457412.9170706536</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457412.9170706536</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758741.0442355539</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758741.0442355539</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758741.0442355537</v>
+        <v>758741.0442355539</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758741.0442355539</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457412.9170706536</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="C2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="D2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="E2" t="n">
-        <v>135529.7532061195</v>
+        <v>211987.8484697348</v>
       </c>
       <c r="F2" t="n">
-        <v>135529.7532061195</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="G2" t="n">
-        <v>135529.7532061195</v>
+        <v>224812.1612549791</v>
       </c>
       <c r="H2" t="n">
         <v>224812.1612549789</v>
       </c>
       <c r="I2" t="n">
+        <v>224812.161254979</v>
+      </c>
+      <c r="J2" t="n">
+        <v>224812.161254979</v>
+      </c>
+      <c r="K2" t="n">
         <v>224812.1612549789</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>224812.1612549789</v>
-      </c>
-      <c r="K2" t="n">
-        <v>224812.161254979</v>
-      </c>
-      <c r="L2" t="n">
-        <v>224812.161254979</v>
       </c>
       <c r="M2" t="n">
         <v>224812.161254979</v>
@@ -26353,7 +26355,7 @@
         <v>224812.161254979</v>
       </c>
       <c r="P2" t="n">
-        <v>135529.7532061195</v>
+        <v>224812.1612549789</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>184751.0683929118</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>29737.4563912966</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875097</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>154199.925137777</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25420.0525660886</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>458.4532502675966</v>
+      </c>
+      <c r="C4" t="n">
         <v>458.4532502675965</v>
       </c>
-      <c r="C4" t="n">
-        <v>458.4532502675964</v>
-      </c>
       <c r="D4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="E4" t="n">
-        <v>458.4532502675964</v>
+        <v>750.9926413894791</v>
       </c>
       <c r="F4" t="n">
-        <v>458.4532502675964</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="G4" t="n">
-        <v>458.4532502675964</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="I4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="I4" t="n">
-        <v>800.0602599433671</v>
-      </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="N4" t="n">
         <v>800.0602599433672</v>
@@ -26457,7 +26459,7 @@
         <v>800.0602599433672</v>
       </c>
       <c r="P4" t="n">
-        <v>458.4532502675964</v>
+        <v>800.0602599433671</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>71439.85875631242</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26509,7 +26511,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-118779.6844963133</v>
+        <v>-118779.6844963134</v>
       </c>
       <c r="C6" t="n">
-        <v>67625.0489184238</v>
+        <v>67625.04891842385</v>
       </c>
       <c r="D6" t="n">
-        <v>67625.04891842377</v>
+        <v>67625.04891842385</v>
       </c>
       <c r="E6" t="n">
-        <v>101252.6489184238</v>
+        <v>-44954.07132087892</v>
       </c>
       <c r="F6" t="n">
-        <v>101252.6489184238</v>
+        <v>116524.5824153093</v>
       </c>
       <c r="G6" t="n">
-        <v>101252.6489184238</v>
+        <v>146262.038806606</v>
       </c>
       <c r="H6" t="n">
-        <v>-48690.10118090377</v>
+        <v>146262.0388066059</v>
       </c>
       <c r="I6" t="n">
         <v>146262.0388066059</v>
       </c>
       <c r="J6" t="n">
-        <v>728.3688717894111</v>
+        <v>728.3688717894256</v>
       </c>
       <c r="K6" t="n">
         <v>146262.0388066059</v>
       </c>
       <c r="L6" t="n">
-        <v>146262.038806606</v>
+        <v>146262.0388066059</v>
       </c>
       <c r="M6" t="n">
-        <v>146262.038806606</v>
+        <v>-7937.886331171088</v>
       </c>
       <c r="N6" t="n">
+        <v>120841.9862405173</v>
+      </c>
+      <c r="O6" t="n">
         <v>146262.0388066059</v>
       </c>
-      <c r="O6" t="n">
-        <v>146262.038806606</v>
-      </c>
       <c r="P6" t="n">
-        <v>101252.6489184238</v>
+        <v>146262.0388066059</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>1174.997676913033</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572629</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572629</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>150.7519016821051</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155939</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155939</v>
+        <v>415.010189472638</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>162.8199733981326</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155939</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>48.74406945557163</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>205.2692485493136</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155939</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>75.42597529544717</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155939</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>415.0101894726378</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>556.2278131155939</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>357.2118800478177</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>510.5455990486529</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>556.2278131155939</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>245.6677613624793</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36370,7 +36372,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36446,13 +36448,13 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37081,7 +37083,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37315,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O35" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37400,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37786,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37795,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155939</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155939</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="M44" t="n">
-        <v>533.7539620806203</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155939</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155939</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.90411371775849</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>553308.5181402609</v>
+        <v>550881.9256559777</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11851279.69682649</v>
+        <v>11851279.6968265</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2519657.038588235</v>
+        <v>2519657.038588237</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>374.1952585722194</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>79.9786826194547</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>98.15366458399333</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>120.0693374786941</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>43.02212342477529</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -955,16 +955,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>87.23138622027859</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>4.32206238845632</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>37.39972735518568</v>
+        <v>222.0166299227638</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>12.8762378959725</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>209.5855565322777</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>101.5800624936545</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2535,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>164.7047943182447</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="32">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>31.67019958851207</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>104.9037564455526</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3435,13 +3435,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>184.1331270995151</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.5800624936545</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.104916933606</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="C2" t="n">
-        <v>1250.104916933606</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="D2" t="n">
-        <v>826.8122961186064</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E2" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,25 +4333,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4363,19 +4363,19 @@
         <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1646.496266633259</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.104916933606</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1250.104916933606</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y2" t="n">
-        <v>1250.104916933606</v>
+        <v>499.2434605973064</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>119.1699405917395</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>669.8354755761777</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.6159039117389</v>
+        <v>717.8575411161469</v>
       </c>
       <c r="C4" t="n">
-        <v>143.6433407906549</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924753</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
         <v>44.49822504924753</v>
@@ -4518,22 +4518,22 @@
         <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1651.782578520152</v>
       </c>
       <c r="W4" t="n">
-        <v>974.6885374882575</v>
+        <v>1376.930174692665</v>
       </c>
       <c r="X4" t="n">
-        <v>732.1246409340625</v>
+        <v>1134.366278138471</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.7818726238046</v>
+        <v>908.0235098282126</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1641.263477976562</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C5" t="n">
-        <v>1597.806787648507</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.263477976562</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.263477976562</v>
+        <v>1300.028845896057</v>
       </c>
       <c r="Y5" t="n">
-        <v>1641.263477976562</v>
+        <v>894.6915758509472</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>1153.275937980036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N6" t="n">
-        <v>1153.275937980036</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1703.941472964474</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1703.941472964474</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>554.589532101539</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>382.616968980455</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782725</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782725</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>96.60472747782725</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2050.410485397211</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1770.226036897516</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1488.514569505544</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1213.662165678057</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>971.0982691238626</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>744.7555008136046</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1355.565386959618</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="C8" t="n">
-        <v>928.6646569729185</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="D8" t="n">
-        <v>505.3720361579187</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="E8" t="n">
-        <v>79.39509630577632</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="F8" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630124</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y8" t="n">
-        <v>1775.413751251148</v>
+        <v>767.4907853858125</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2497.501727554001</v>
+        <v>2532.39859881053</v>
       </c>
       <c r="C11" t="n">
-        <v>2070.600997567301</v>
+        <v>2105.49786882383</v>
       </c>
       <c r="D11" t="n">
-        <v>1647.308376752302</v>
+        <v>1682.20524800883</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.331436900159</v>
+        <v>1256.228308156688</v>
       </c>
       <c r="F11" t="n">
-        <v>796.2072550895592</v>
+        <v>831.104126346088</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8681926790078</v>
+        <v>426.7650639355367</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99981415304266</v>
+        <v>128.8966854095715</v>
       </c>
       <c r="I11" t="n">
         <v>93.99981415304266</v>
@@ -5050,43 +5050,43 @@
         <v>2101.736628564714</v>
       </c>
       <c r="M11" t="n">
-        <v>2304.953184628534</v>
+        <v>3106.022729983772</v>
       </c>
       <c r="N11" t="n">
-        <v>3281.204243115235</v>
+        <v>4082.273788470473</v>
       </c>
       <c r="O11" t="n">
-        <v>4126.348893266048</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="P11" t="n">
-        <v>4126.348893266048</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="Q11" t="n">
-        <v>4582.434372770231</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="R11" t="n">
         <v>4699.990707652133</v>
       </c>
       <c r="S11" t="n">
-        <v>4699.990707652133</v>
+        <v>4595.623413525273</v>
       </c>
       <c r="T11" t="n">
-        <v>4699.990707652133</v>
+        <v>4374.697842569906</v>
       </c>
       <c r="U11" t="n">
-        <v>4488.288125296297</v>
+        <v>4116.342933166318</v>
       </c>
       <c r="V11" t="n">
-        <v>4130.798710422547</v>
+        <v>3758.853518292568</v>
       </c>
       <c r="W11" t="n">
-        <v>3734.407360722893</v>
+        <v>3362.462168592915</v>
       </c>
       <c r="X11" t="n">
-        <v>3322.687361890641</v>
+        <v>2950.742169760662</v>
       </c>
       <c r="Y11" t="n">
-        <v>2917.350091845531</v>
+        <v>2545.404899715553</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>93.99981415304266</v>
       </c>
       <c r="I12" t="n">
-        <v>93.99981415304266</v>
+        <v>101.4464571149545</v>
       </c>
       <c r="J12" t="n">
-        <v>93.99981415304266</v>
+        <v>373.1439463945456</v>
       </c>
       <c r="K12" t="n">
-        <v>684.4847407213822</v>
+        <v>963.6288729628852</v>
       </c>
       <c r="L12" t="n">
-        <v>1521.283548804288</v>
+        <v>1800.427681045791</v>
       </c>
       <c r="M12" t="n">
-        <v>1521.283548804288</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="N12" t="n">
-        <v>1521.283548804288</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="O12" t="n">
-        <v>1521.283548804288</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="P12" t="n">
         <v>1902.687444733552</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1177.18093667728</v>
+        <v>437.8341514995662</v>
       </c>
       <c r="C13" t="n">
-        <v>1005.208373556196</v>
+        <v>265.8615883784822</v>
       </c>
       <c r="D13" t="n">
-        <v>841.8916006829662</v>
+        <v>265.8615883784822</v>
       </c>
       <c r="E13" t="n">
-        <v>675.6833948358197</v>
+        <v>265.8615883784822</v>
       </c>
       <c r="F13" t="n">
-        <v>503.8216206103802</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="G13" t="n">
-        <v>337.5646509046123</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="H13" t="n">
-        <v>193.7683824127667</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I13" t="n">
         <v>93.99981415304266</v>
@@ -5226,25 +5226,25 @@
         <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2274.412841566171</v>
+        <v>2176.994452569339</v>
       </c>
       <c r="T13" t="n">
-        <v>2274.412841566171</v>
+        <v>1933.655104795238</v>
       </c>
       <c r="U13" t="n">
-        <v>2274.412841566171</v>
+        <v>1653.470656295543</v>
       </c>
       <c r="V13" t="n">
-        <v>2111.105974081285</v>
+        <v>1371.759188903572</v>
       </c>
       <c r="W13" t="n">
-        <v>1836.253570253798</v>
+        <v>1096.906785076085</v>
       </c>
       <c r="X13" t="n">
-        <v>1593.689673699603</v>
+        <v>854.3428885218898</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.346905389345</v>
+        <v>628.0001202116318</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5293,13 +5293,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5354,19 +5354,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
         <v>1910.990343986338</v>
@@ -5542,16 +5542,16 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>188.235025135897</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5828,19 +5828,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5012.529546560463</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>5012.529546560463</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4732.345098060768</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4450.633630668796</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4450.633630668796</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4208.069734114601</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,22 +5989,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1542.018283751469</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1542.018283751469</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6302,22 +6302,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3270.011978872612</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="C34" t="n">
-        <v>3098.039415751528</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5009.172279942384</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4765.832932168284</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4485.648483668589</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>4203.937016276617</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>3929.08461244913</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>3686.520715894936</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>3460.177947584677</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7013,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>603.8002552472883</v>
+        <v>919.4582979645735</v>
       </c>
       <c r="C37" t="n">
-        <v>431.8276921262043</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D37" t="n">
-        <v>268.510919252975</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7125,22 +7125,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2099.621208542961</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1819.436760043265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.725292651294</v>
+        <v>1853.383335368579</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.872888823807</v>
+        <v>1578.530931541092</v>
       </c>
       <c r="X37" t="n">
-        <v>1020.308992269612</v>
+        <v>1335.967034986897</v>
       </c>
       <c r="Y37" t="n">
-        <v>793.966223959354</v>
+        <v>1109.624266676639</v>
       </c>
     </row>
     <row r="38">
@@ -7174,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7253,16 +7253,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1720.81982492729</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1478.255928373095</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7417,22 +7417,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M41" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7487,19 +7487,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
         <v>1910.990343986338</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7654,19 +7654,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1970.233751723557</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2974.519853142615</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3950.770911629316</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
         <v>5115.135670291427</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M45" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.830612633294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.830612633294</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>204.9191049629863</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>90.41920043198729</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733347</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
@@ -8227,10 +8227,10 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
-        <v>452.4011488286621</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8306,19 +8306,19 @@
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733347</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.6511520067363</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>300.3028744740158</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N9" t="n">
-        <v>179.6167914733347</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8698,22 +8698,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>242.7005114487454</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>661.3474433779027</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
@@ -8777,7 +8777,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P14" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9655,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10901,19 +10901,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11065,7 +11065,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11302,7 +11302,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>836.1092863976068</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11311,13 +11311,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>951.5880457335786</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>47.52191188140165</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>321.3052147252039</v>
       </c>
     </row>
     <row r="3">
@@ -22710,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.52994056050366</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22758,10 +22758,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.8366168176649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22786,22 +22786,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>379.6095992620575</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>320.3714126236516</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22953,16 +22953,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.18544517283286</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>236.5838919079027</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>363.8841699894729</v>
+        <v>179.2672674218948</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>402.7736427526422</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.18580377727415</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>66.85363451240204</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.37454630891071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,7 +24612,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24621,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>47.18544517283262</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.5941094364329</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>63.52994056050389</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.76122561853629</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>122.4992781335009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715458.9885853551</v>
+        <v>715458.9885853552</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758741.0442355539</v>
+        <v>758741.0442355541</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="C2" t="n">
         <v>135529.7532061196</v>
@@ -26325,19 +26325,19 @@
         <v>211987.8484697348</v>
       </c>
       <c r="F2" t="n">
-        <v>224812.1612549789</v>
+        <v>224812.161254979</v>
       </c>
       <c r="G2" t="n">
-        <v>224812.1612549791</v>
+        <v>224812.161254979</v>
       </c>
       <c r="H2" t="n">
         <v>224812.1612549789</v>
       </c>
       <c r="I2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="J2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="K2" t="n">
         <v>224812.1612549789</v>
@@ -26346,13 +26346,13 @@
         <v>224812.1612549789</v>
       </c>
       <c r="M2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="N2" t="n">
         <v>224812.1612549789</v>
       </c>
       <c r="O2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="P2" t="n">
         <v>224812.1612549789</v>
@@ -26420,7 +26420,7 @@
         <v>458.4532502675966</v>
       </c>
       <c r="C4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="D4" t="n">
         <v>458.4532502675965</v>
@@ -26438,25 +26438,25 @@
         <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="P4" t="n">
         <v>800.0602599433671</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-118779.6844963134</v>
+        <v>-119388.7302088031</v>
       </c>
       <c r="C6" t="n">
-        <v>67625.04891842385</v>
+        <v>67016.00320593416</v>
       </c>
       <c r="D6" t="n">
-        <v>67625.04891842385</v>
+        <v>67016.00320593419</v>
       </c>
       <c r="E6" t="n">
-        <v>-44954.07132087892</v>
+        <v>-45085.25393797094</v>
       </c>
       <c r="F6" t="n">
-        <v>116524.5824153093</v>
+        <v>116473.5517531251</v>
       </c>
       <c r="G6" t="n">
-        <v>146262.038806606</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="H6" t="n">
-        <v>146262.0388066059</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="I6" t="n">
-        <v>146262.0388066059</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="J6" t="n">
-        <v>728.3688717894256</v>
+        <v>677.3382096050341</v>
       </c>
       <c r="K6" t="n">
-        <v>146262.0388066059</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="L6" t="n">
-        <v>146262.0388066059</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="M6" t="n">
-        <v>-7937.886331171088</v>
+        <v>-7988.91699335545</v>
       </c>
       <c r="N6" t="n">
-        <v>120841.9862405173</v>
+        <v>120790.955578333</v>
       </c>
       <c r="O6" t="n">
-        <v>146262.0388066059</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="P6" t="n">
-        <v>146262.0388066059</v>
+        <v>146211.0081444216</v>
       </c>
     </row>
   </sheetData>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>67.90411371775774</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
@@ -34947,10 +34947,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35026,19 +35026,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35418,22 +35418,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>205.2692485493136</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>623.9564840218785</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
@@ -35497,7 +35497,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P14" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36375,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>797.7972439649839</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38031,13 +38031,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>928.4912652212506</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
